--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://7185068373-my.sharepoint.com/personal/jhartley_milcorp_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE777C9-61F3-4458-88C9-D1C3985424E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4DE777C9-61F3-4458-88C9-D1C3985424E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507388A0-E12B-4669-89E7-DBE8AB6ABAAE}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{916BC1A6-469E-4BA2-8F27-F82AB5EBACCF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{916BC1A6-469E-4BA2-8F27-F82AB5EBACCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>this</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t>downloading</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>sheets</t>
   </si>
 </sst>
 </file>
@@ -433,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F9BCD-AE43-4631-9DE8-B65E842C02B1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +481,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB3DA2-B07E-4991-84DE-E86BDBC19419}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>